--- a/Datos_Sal/DMtest_mod2_vs_mod3.xlsx
+++ b/Datos_Sal/DMtest_mod2_vs_mod3.xlsx
@@ -340,7 +340,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0000179390242477233</v>
+        <v>0.000000000825320822957683</v>
       </c>
     </row>
   </sheetData>
